--- a/LifeChem raw data/DENV Rdrp Life Chem DR.xlsx
+++ b/LifeChem raw data/DENV Rdrp Life Chem DR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownpet\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/uccaris_ucl_ac_uk/Documents/GitHub/CNP11-DENVRdrp-LifeChem/LifeChem raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD4C06-F5BE-44B8-8024-C4B2EF43DC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D0CD4C06-F5BE-44B8-8024-C4B2EF43DC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AC894F3-1B73-4D61-870C-55771FF0CAC1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E7F0431B-A307-4F60-BA9B-9C69224FE72B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7F0431B-A307-4F60-BA9B-9C69224FE72B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -946,9 +946,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -986,7 +986,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1092,7 +1092,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1234,7 +1234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1248,13 +1248,14 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1414,7 +1415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>31</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>33</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>37</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>54</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>54</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>32</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>30</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>27</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>52</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>56</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>46</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>45</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>49</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>56</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>59</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>44</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>45</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>13</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>59</v>
       </c>
@@ -2598,7 +2599,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>55</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>36</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>58</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>50</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>63</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>25</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>38</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2918,7 +2919,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>15</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>19</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>22</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>23</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>24</v>
       </c>
@@ -3238,7 +3239,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>28</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>34</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>35</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>39</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>40</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>41</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>42</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>43</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>47</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>48</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>51</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>53</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>57</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>60</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>61</v>
       </c>
@@ -3718,7 +3719,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>62</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>64</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3814,7 +3815,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>7</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8</v>
       </c>
@@ -3942,7 +3943,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>9</v>
       </c>
@@ -3974,7 +3975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>10</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>11</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>12</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>14</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>15</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>16</v>
       </c>
@@ -4166,7 +4167,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>19</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20</v>
       </c>
@@ -4230,7 +4231,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>22</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>23</v>
       </c>
@@ -4294,7 +4295,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>24</v>
       </c>
@@ -4326,7 +4327,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>25</v>
       </c>
@@ -4358,7 +4359,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>26</v>
       </c>
@@ -4390,7 +4391,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>27</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>28</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>30</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>33</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>34</v>
       </c>
@@ -4550,7 +4551,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>35</v>
       </c>
@@ -4582,7 +4583,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>36</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>37</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>38</v>
       </c>
@@ -4678,7 +4679,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>39</v>
       </c>
@@ -4710,7 +4711,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>40</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>41</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>42</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>43</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>44</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>46</v>
       </c>
@@ -4902,7 +4903,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>47</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>48</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>49</v>
       </c>
@@ -4998,7 +4999,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>50</v>
       </c>
@@ -5030,7 +5031,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>51</v>
       </c>
@@ -5062,7 +5063,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>52</v>
       </c>
@@ -5094,7 +5095,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>53</v>
       </c>
@@ -5126,7 +5127,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>55</v>
       </c>
@@ -5158,7 +5159,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>57</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>58</v>
       </c>
@@ -5222,7 +5223,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>60</v>
       </c>
@@ -5254,7 +5255,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>61</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>62</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>63</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>64</v>
       </c>
